--- a/biology/Botanique/Kober_5_BB/Kober_5_BB.xlsx
+++ b/biology/Botanique/Kober_5_BB/Kober_5_BB.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Kober 5BB ou Teleki-Kober 5BB est un porte-greffe utilisé en viticulture.
 </t>
@@ -511,7 +523,9 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Kober 5BB est issu d'une hybridation inter-spécifique entre Vitis riparia et Vitis berlandieri faite en Hongrie par Sigmund Teleki. 
 </t>
@@ -542,9 +556,11 @@
           <t>Caractères ampélographiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il possède un bourgeonnement semi ouvert[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il possède un bourgeonnement semi ouvert.
 </t>
         </is>
       </c>
@@ -575,13 +591,15 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Adaptation au terroir
-Ce porte-greffe est particulièrement tolérant à l'humidité printanière des sols, tout en supportant une relative sècheresse estivale. En terrain calcaire, il pousse jusqu'à 20 % de calcaire actif et accepte un indice de pouvoir chlorosant de 30. 
+          <t>Adaptation au terroir</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce porte-greffe est particulièrement tolérant à l'humidité printanière des sols, tout en supportant une relative sècheresse estivale. En terrain calcaire, il pousse jusqu'à 20 % de calcaire actif et accepte un indice de pouvoir chlorosant de 30. 
 Il convient bien aux terrains argilo-calcaires humides et compacts.
 Il est très résistant au phylloxera gallicole.
-Aptitude au greffage
-Il confère une grande vigueur au greffon, induisant un retard de maturité. 
-Parmi les virus responsables de l'enroulement de la vigne, l'un d'entre eux induit une incompatibilité a greffage avec le Kober 5 BB[2].
 </t>
         </is>
       </c>
@@ -607,10 +625,50 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Aptitudes</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Aptitude au greffage</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il confère une grande vigueur au greffon, induisant un retard de maturité. 
+Parmi les virus responsables de l'enroulement de la vigne, l'un d'entre eux induit une incompatibilité a greffage avec le Kober 5 BB.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Kober_5_BB</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Kober_5_BB</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Sources</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
